--- a/Forecasts_Validation_SES/Validation_MAE_MSE_SES.xlsx
+++ b/Forecasts_Validation_SES/Validation_MAE_MSE_SES.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.003981366115665</v>
+        <v>4.927327199136311</v>
       </c>
       <c r="B2" t="n">
-        <v>5.003981366115665</v>
+        <v>4.927327199136311</v>
       </c>
     </row>
   </sheetData>
